--- a/biology/Médecine/Jérémy_Saget/Jérémy_Saget.xlsx
+++ b/biology/Médecine/Jérémy_Saget/Jérémy_Saget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Saget</t>
+          <t>Jérémy_Saget</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jérémy Saget, né le 4 novembre 1977 à Bordeaux, est un médecin français présélectionné pour la mission Mars One de colonisation de la planète Mars.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Saget</t>
+          <t>Jérémy_Saget</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jérémy Saget naît le 4 novembre 1977[1]. Il est marié et père de trois enfants[2].
-Mission spatiale
-En 2015, il est un praticien spécialisé dans la médecine aérospatiale afin de devenir médecin de vol parabolique (en apesanteur), auprès de l'équipe médicale de Novespace[3].
-Jérémy Saget est le dernier français parmi les 100 présélectionnés pour la mission de colonisation de la planète Mars[3].
-Il s'ensuit une sélection basée essentiellement sur des tests d'endurance dans une réplique de la base qui sera installée sur Mars[4].
-L'entraînement débute  en automne 2016[5].
-La mission de colonisation de la planète est prévue autour de 2032[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jérémy Saget naît le 4 novembre 1977. Il est marié et père de trois enfants.
 </t>
         </is>
       </c>
@@ -530,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%A9r%C3%A9my_Saget</t>
+          <t>Jérémy_Saget</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mission spatiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, il est un praticien spécialisé dans la médecine aérospatiale afin de devenir médecin de vol parabolique (en apesanteur), auprès de l'équipe médicale de Novespace.
+Jérémy Saget est le dernier français parmi les 100 présélectionnés pour la mission de colonisation de la planète Mars.
+Il s'ensuit une sélection basée essentiellement sur des tests d'endurance dans une réplique de la base qui sera installée sur Mars.
+L'entraînement débute  en automne 2016.
+La mission de colonisation de la planète est prévue autour de 2032
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jérémy_Saget</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J%C3%A9r%C3%A9my_Saget</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stratégie de détection de la lèpre à Mayotte (Océan indien), 2010 (ISBN 978-6131517280)
 Touching the Face of the Cosmos, Faith to Face, 2015  (ISBN 978-0823272112)</t>
